--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Ledger_Allocation.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Ledger_Allocation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimitarkokov/PycharmProjects/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimitarkokov/PycharmProjects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545A0B9A-DE0B-864E-A00D-755724D5A11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A605A5C7-7135-5547-BBA6-B045B2884244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="6320" windowWidth="31740" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -609,7 +609,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -820,7 +820,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>48</v>
@@ -892,7 +892,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>49</v>

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Ledger_Allocation.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Ledger_Allocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimitarkokov/PycharmProjects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james.warren/projects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A605A5C7-7135-5547-BBA6-B045B2884244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305E747D-855B-F444-A44C-4223B39FB062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="6320" windowWidth="31740" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3080" yWindow="460" windowWidth="31740" windowHeight="20520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="4" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>NOT MAPPED</t>
   </si>
   <si>
-    <t>CASRECMIGRATION</t>
-  </si>
-  <si>
     <t>Populated via post-migration task</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>absolute_value</t>
+  </si>
+  <si>
+    <t>CASRECMIGRATION_P2</t>
   </si>
 </sst>
 </file>
@@ -571,16 +571,16 @@
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>30</v>
@@ -589,10 +589,10 @@
         <v>35</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -609,7 +609,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -625,7 +625,7 @@
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.33203125" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.83203125" customWidth="1"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32.6640625" customWidth="1"/>
@@ -683,7 +683,7 @@
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
@@ -706,11 +706,11 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>17</v>
@@ -720,7 +720,7 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>39</v>
@@ -728,11 +728,11 @@
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>17</v>
@@ -742,7 +742,7 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>39</v>
@@ -750,14 +750,14 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="5" t="b">
         <v>0</v>
@@ -776,14 +776,14 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5" t="b">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>38</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>18</v>
@@ -805,11 +805,11 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>21</v>
@@ -823,12 +823,12 @@
         <v>18</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
@@ -854,11 +854,11 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>21</v>
@@ -869,7 +869,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="M9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>18</v>
@@ -877,11 +877,11 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
@@ -895,12 +895,12 @@
         <v>18</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
@@ -918,12 +918,12 @@
         <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
@@ -938,7 +938,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="M12" s="7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>18</v>
